--- a/src/main/resources/excel/test.xlsx
+++ b/src/main/resources/excel/test.xlsx
@@ -54,11 +54,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>模拟退火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +416,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
     </row>
     <row r="3" spans="1:17" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="5" spans="1:17" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
